--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Ampps\www\javascript\pyscript\quran_school_survey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF129B-FFE2-440E-AA51-BAE6AB4BE994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67DD36D4-8807-46E3-9185-A91BE502D3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1630B984-C9A3-4170-A719-F3268198A506}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{1630B984-C9A3-4170-A719-F3268198A506}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="112">
   <si>
     <t>rg_name</t>
   </si>
@@ -363,13 +363,22 @@
   </si>
   <si>
     <t>كريم إيهاب حربي العشى</t>
+  </si>
+  <si>
+    <t>22-05-1445</t>
+  </si>
+  <si>
+    <t>23-05-1445</t>
+  </si>
+  <si>
+    <t>عدي باسم محمد ديب العوير</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,16 +394,308 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -417,11 +718,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -451,9 +900,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -768,7 +1259,7 @@
   <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,81 +3467,205 @@
       </c>
       <c r="Q43" s="2"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+    <row r="44" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>495780</v>
+      </c>
+      <c r="B44" s="11">
+        <v>208863</v>
+      </c>
+      <c r="C44" s="11">
+        <v>182935</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" s="9">
+        <v>10</v>
+      </c>
+      <c r="F44" s="9">
+        <v>95</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I44" s="9">
+        <v>1445</v>
+      </c>
+      <c r="J44" s="9">
+        <v>5</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="O44" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>495781</v>
+      </c>
+      <c r="B45" s="11">
+        <v>208863</v>
+      </c>
+      <c r="C45" s="11">
+        <v>127162</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="9">
+        <v>15</v>
+      </c>
+      <c r="F45" s="9">
+        <v>90</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" s="9">
+        <v>1445</v>
+      </c>
+      <c r="J45" s="9">
+        <v>5</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P45" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>495785</v>
+      </c>
+      <c r="B46" s="11">
+        <v>208865</v>
+      </c>
+      <c r="C46" s="11">
+        <v>153538</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="9">
+        <v>10</v>
+      </c>
+      <c r="F46" s="9">
+        <v>84</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1445</v>
+      </c>
+      <c r="J46" s="9">
+        <v>5</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L46" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P46" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>495786</v>
+      </c>
+      <c r="B47" s="11">
+        <v>208865</v>
+      </c>
+      <c r="C47" s="11">
+        <v>138466</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="9">
+        <v>5</v>
+      </c>
+      <c r="F47" s="9">
+        <v>95</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I47" s="9">
+        <v>1445</v>
+      </c>
+      <c r="J47" s="9">
+        <v>5</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P47" s="11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
